--- a/HES.xlsx
+++ b/HES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Acquisition Date</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>Cost Basis ($)</t>
-  </si>
-  <si>
-    <t>Value($)</t>
-  </si>
-  <si>
-    <t>Gain/Loss</t>
-  </si>
-  <si>
-    <t>($)</t>
-  </si>
-  <si>
-    <t>Gain/Loss (%)</t>
   </si>
   <si>
     <t>mean unit cost</t>
@@ -232,18 +220,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -272,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -350,17 +339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -381,17 +359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFD6D6D6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -404,37 +371,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color rgb="FFD6D6D6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -456,9 +398,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -469,7 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -493,18 +431,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -513,57 +444,48 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,607 +875,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="20" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" style="20"/>
-    <col min="7" max="7" width="15.7109375" style="16"/>
-    <col min="8" max="8" width="17" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.7109375" style="20"/>
+    <col min="1" max="1" width="39.42578125" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="15.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>56.2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>281</v>
+      </c>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="19">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19">
+        <v>56.5</v>
+      </c>
+      <c r="D4" s="19">
+        <v>847.5</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="14">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14">
+        <v>59.2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2368</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>60.75</v>
+      </c>
+      <c r="D6" s="19">
+        <v>303.75</v>
+      </c>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>61.05</v>
+      </c>
+      <c r="D8" s="14">
+        <v>305.26</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="19">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19">
+        <v>61.65</v>
+      </c>
+      <c r="D10" s="19">
+        <v>616.51</v>
+      </c>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
+        <v>62.8</v>
+      </c>
+      <c r="D12" s="14">
+        <v>628.01</v>
+      </c>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="D14" s="19">
+        <v>330.75</v>
+      </c>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14">
+        <v>70.5</v>
+      </c>
+      <c r="D16" s="14">
+        <v>352.52</v>
+      </c>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="19">
+        <v>15</v>
+      </c>
+      <c r="C18" s="19">
+        <v>70.75</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1061.29</v>
+      </c>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="17">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17">
-        <v>56.2</v>
-      </c>
-      <c r="D3" s="17">
-        <v>281</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17">
-        <f>M20*B3</f>
-        <v>279.60000000000002</v>
-      </c>
-      <c r="H3" s="17">
-        <v>-1.4</v>
-      </c>
-      <c r="I3" s="17">
-        <v>-0.5</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="22">
-        <v>15</v>
-      </c>
-      <c r="C4" s="22">
-        <v>56.5</v>
-      </c>
-      <c r="D4" s="22">
-        <v>847.5</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22">
-        <v>838.8</v>
-      </c>
-      <c r="H4" s="22">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="I4" s="22">
-        <v>-1.03</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="17">
-        <v>40</v>
-      </c>
-      <c r="C5" s="17">
-        <v>59.2</v>
-      </c>
-      <c r="D5" s="18">
-        <v>2368</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18">
-        <v>2236.8000000000002</v>
-      </c>
-      <c r="H5" s="17">
-        <v>-131.19999999999999</v>
-      </c>
-      <c r="I5" s="17">
-        <v>-5.54</v>
-      </c>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="22">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22">
-        <v>60.75</v>
-      </c>
-      <c r="D6" s="22">
-        <v>303.75</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22">
-        <v>279.60000000000002</v>
-      </c>
-      <c r="H6" s="22">
-        <v>-24.15</v>
-      </c>
-      <c r="I6" s="22">
-        <v>-7.95</v>
-      </c>
-      <c r="J6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="46"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="17">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17">
-        <v>61.05</v>
-      </c>
-      <c r="D8" s="17">
-        <v>305.26</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17">
-        <v>279.60000000000002</v>
-      </c>
-      <c r="H8" s="17">
-        <v>-25.66</v>
-      </c>
-      <c r="I8" s="17">
-        <v>-8.41</v>
-      </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="22">
-        <v>10</v>
-      </c>
-      <c r="C10" s="22">
-        <v>61.65</v>
-      </c>
-      <c r="D10" s="22">
-        <v>616.51</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22">
-        <v>559.20000000000005</v>
-      </c>
-      <c r="H10" s="22">
-        <v>-57.31</v>
-      </c>
-      <c r="I10" s="22">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17">
-        <v>62.8</v>
-      </c>
-      <c r="D12" s="17">
-        <v>628.01</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17">
-        <v>559.20000000000005</v>
-      </c>
-      <c r="H12" s="17">
-        <v>-68.81</v>
-      </c>
-      <c r="I12" s="17">
-        <v>-10.96</v>
-      </c>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="22">
-        <v>5</v>
-      </c>
-      <c r="C14" s="22">
-        <v>66.150000000000006</v>
-      </c>
-      <c r="D14" s="22">
-        <v>330.75</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22">
-        <v>279.60000000000002</v>
-      </c>
-      <c r="H14" s="22">
-        <v>-51.15</v>
-      </c>
-      <c r="I14" s="22">
-        <v>-15.47</v>
-      </c>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="17">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17">
-        <v>70.5</v>
-      </c>
-      <c r="D16" s="17">
-        <v>352.52</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17">
-        <v>279.60000000000002</v>
-      </c>
-      <c r="H16" s="17">
-        <v>-72.92</v>
-      </c>
-      <c r="I16" s="17">
-        <v>-20.69</v>
-      </c>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="22">
-        <v>15</v>
-      </c>
-      <c r="C18" s="22">
-        <v>70.75</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1061.29</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22">
-        <v>838.8</v>
-      </c>
-      <c r="H18" s="22">
-        <v>-222.49</v>
-      </c>
-      <c r="I18" s="22">
-        <v>-20.96</v>
-      </c>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="51"/>
-      <c r="L19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="20">
+      <c r="G19" s="17">
         <f>D22/B22</f>
         <v>61.692086956521749</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42">
-        <v>-663.79</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="L20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="20">
-        <v>55.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="L21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="24">
-        <f>(M20-M19)/M19</f>
-        <v>-9.3562841545459394E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="20">
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="17">
+        <v>58.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="F21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="21">
+        <f>(G20-G19)/G19</f>
+        <v>-5.271481509149948E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="17">
         <f>SUM(B3:B18)</f>
         <v>115</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <f>SUM(D3:D18)</f>
         <v>7094.5900000000011</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="L22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="20">
+      <c r="F22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="20"/>
-      <c r="L23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="44">
-        <f>(M20-M19)*B22 + M22</f>
-        <v>-663.79000000000087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="20"/>
-    </row>
-    <row r="34" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G59" s="20"/>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="45">
+        <f>(G20-G19)*B22 + G22</f>
+        <v>-373.99000000000137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J10:J11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1569,7 +1202,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1577,259 +1210,259 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="D13">
         <v>1.32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>20</v>
+      <c r="A14" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>28</v>
+      <c r="A15" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
+      <c r="A16" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1919</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="D21" s="23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="25">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="26">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26">
-        <v>1.7899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27">
-        <v>42306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="D26">
         <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>32</v>
+      <c r="A27" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>33</v>
+      <c r="A28" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="25"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="25"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="7"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="5"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="36"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="37"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
